--- a/src/test/resources/#81.xlsx
+++ b/src/test/resources/#81.xlsx
@@ -409,7 +409,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
